--- a/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D93A65B-6A5F-46A5-B2B4-6BEEAF9B888D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D03D74-B8B4-424D-95C8-DED968389836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1738,10 +1738,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2632,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2126"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5470,6 +5470,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5686,22 +5701,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5718,29 +5743,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>